--- a/Jack/jack_test_info.xlsx
+++ b/Jack/jack_test_info.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="12720" windowHeight="3645"/>
+    <workbookView windowWidth="27750" windowHeight="10485"/>
   </bookViews>
   <sheets>
-    <sheet name="6-2" sheetId="1" r:id="rId1"/>
-    <sheet name="6" sheetId="6" r:id="rId2"/>
-    <sheet name="7-N" sheetId="14" r:id="rId3"/>
-    <sheet name="8列炮" sheetId="3" r:id="rId4"/>
-    <sheet name="奇蛇-N" sheetId="15" r:id="rId5"/>
-    <sheet name="5列炮" sheetId="11" r:id="rId6"/>
-    <sheet name="5" sheetId="4" r:id="rId7"/>
-    <sheet name="7" sheetId="13" r:id="rId8"/>
-    <sheet name="9-2" sheetId="12" r:id="rId9"/>
-    <sheet name="9" sheetId="5" r:id="rId10"/>
-    <sheet name="3" sheetId="10" r:id="rId11"/>
+    <sheet name="8列炮" sheetId="3" r:id="rId1"/>
+    <sheet name="5" sheetId="4" r:id="rId2"/>
+    <sheet name="6" sheetId="6" r:id="rId3"/>
+    <sheet name="3" sheetId="10" r:id="rId4"/>
+    <sheet name="7-N" sheetId="14" r:id="rId5"/>
+    <sheet name="6-2" sheetId="1" r:id="rId6"/>
+    <sheet name="奇蛇-N" sheetId="15" r:id="rId7"/>
+    <sheet name="5列炮" sheetId="11" r:id="rId8"/>
+    <sheet name="7" sheetId="13" r:id="rId9"/>
+    <sheet name="9-2" sheetId="12" r:id="rId10"/>
+    <sheet name="9" sheetId="5" r:id="rId11"/>
     <sheet name="4" sheetId="9" r:id="rId12"/>
     <sheet name="8" sheetId="8" r:id="rId13"/>
   </sheets>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="44">
   <si>
     <t>小丑类型</t>
   </si>
@@ -58,7 +58,7 @@
 (升序)</t>
   </si>
   <si>
-    <t>垫材信息列表(坐标降序)</t>
+    <t>灰烬信息列表(时机升序)</t>
   </si>
   <si>
     <t>地图类型</t>
@@ -79,34 +79,37 @@
     <t>数量</t>
   </si>
   <si>
-    <t>阻挡坐标</t>
+    <t>时机</t>
   </si>
   <si>
-    <t>存在时长</t>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>范围（左）</t>
+  </si>
+  <si>
+    <t>范围（右）</t>
   </si>
   <si>
     <t>被炸情况</t>
   </si>
   <si>
-    <t>下炸上</t>
+    <t>正炸</t>
   </si>
   <si>
     <t>曾</t>
   </si>
   <si>
-    <t>非永动</t>
+    <t>永动</t>
+  </si>
+  <si>
+    <t>炮</t>
   </si>
   <si>
     <t>被炸植物列数</t>
   </si>
   <si>
-    <t>永动</t>
-  </si>
-  <si>
     <t>被炸植物类型</t>
-  </si>
-  <si>
-    <t>普通</t>
   </si>
   <si>
     <t>波次类型</t>
@@ -130,34 +133,37 @@
     <t>是</t>
   </si>
   <si>
-    <t>灰烬时机</t>
+    <t>植物可伤时机</t>
   </si>
   <si>
     <t>时间上限</t>
   </si>
   <si>
-    <t>灰烬类型</t>
+    <t>锁僵尸出生点与冻结倒计时</t>
   </si>
   <si>
-    <t>卡</t>
+    <t>最快</t>
   </si>
   <si>
-    <t>植物可伤时机</t>
-  </si>
-  <si>
-    <t>锁僵尸位置</t>
+    <t>锁植物攻击间隔</t>
   </si>
   <si>
     <t>随机</t>
   </si>
   <si>
-    <t>锁植物反应</t>
+    <t>全部</t>
   </si>
   <si>
-    <t>灰烬范围(上小下大)</t>
+    <t>下炸上</t>
   </si>
   <si>
-    <t>全部</t>
+    <t>非永动</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>旗帜波</t>
   </si>
   <si>
     <t>前院</t>
@@ -166,22 +172,7 @@
     <t>上炸下</t>
   </si>
   <si>
-    <t>旗帜波</t>
-  </si>
-  <si>
-    <t>正炸</t>
-  </si>
-  <si>
-    <t>炮</t>
-  </si>
-  <si>
-    <t>最快</t>
-  </si>
-  <si>
     <t>屋顶</t>
-  </si>
-  <si>
-    <t>最慢</t>
   </si>
 </sst>
 </file>
@@ -347,7 +338,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,6 +354,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,6 +455,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -483,6 +498,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,7 +694,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -697,16 +718,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -715,34 +736,22 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -766,38 +775,50 @@
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -812,6 +833,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1088,13 +1118,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
@@ -1344,28 +1367,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:N25"/>
+  <sheetPr codeName="Sheet48"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="1"/>
-    <col min="3" max="8" width="9.16666666666667" style="1"/>
-    <col min="9" max="9" width="13.3333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.16666666666667" style="1"/>
+    <col min="4" max="6" width="8.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.16666666666667" style="1"/>
+    <col min="9" max="9" width="10" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.16666666666667" style="1"/>
-    <col min="11" max="11" width="18.8333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.16666666666667" style="1"/>
-    <col min="13" max="13" width="11.3333333333333" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.16666666666667" style="1"/>
+    <col min="13" max="14" width="5.125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="10.875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.16666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1388,8 +1414,10 @@
         <v>5</v>
       </c>
       <c r="N1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:14">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1416,45 +1444,61 @@
       <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:14">
+      <c r="O2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
         <v>1</v>
       </c>
-      <c r="I3" s="3">
-        <v>783</v>
-      </c>
       <c r="K3" s="3"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:14">
+      <c r="M3" s="6">
+        <v>1039</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="7">
+        <v>100</v>
+      </c>
+      <c r="P3" s="7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3">
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>19</v>
@@ -1464,21 +1508,23 @@
       </c>
       <c r="I4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:14">
+      <c r="M4" s="6"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="D5" s="3">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>
@@ -1488,21 +1534,23 @@
       </c>
       <c r="I5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:14">
+      <c r="M5" s="6"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>19</v>
@@ -1512,15 +1560,17 @@
       </c>
       <c r="I6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="4:14">
+      <c r="M6" s="6"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="D7" s="3">
         <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>19</v>
@@ -1530,12 +1580,14 @@
       </c>
       <c r="I7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:14">
+      <c r="M7" s="6"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -1544,7 +1596,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>19</v>
@@ -1554,22 +1606,26 @@
       </c>
       <c r="I8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="4:14">
+      <c r="M8" s="6"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="I9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:14">
+      <c r="M9" s="6"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3">
         <v>100000000</v>
@@ -1580,15 +1636,17 @@
       <c r="G10" s="3"/>
       <c r="I10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:14">
+      <c r="M10" s="6"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1596,25 +1654,29 @@
       <c r="G11" s="3"/>
       <c r="I11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="4:14">
+      <c r="M11" s="6"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="I12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:14">
+      <c r="M12" s="6"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1622,15 +1684,17 @@
       <c r="G13" s="3"/>
       <c r="I13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:14">
+      <c r="M13" s="6"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1638,15 +1702,17 @@
       <c r="G14" s="3"/>
       <c r="I14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:14">
+      <c r="M14" s="6"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1654,15 +1720,17 @@
       <c r="G15" s="3"/>
       <c r="I15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:14">
+      <c r="M15" s="6"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1670,130 +1738,123 @@
       <c r="G16" s="3"/>
       <c r="I16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="4:14">
+      <c r="M16" s="6"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="4:16">
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="I17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:14">
-      <c r="A18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="4:16">
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="I18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:14">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="4:16">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="I19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:14">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3">
-        <v>100</v>
-      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="4:16">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="I20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:14">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3">
-        <v>100</v>
-      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="4:16">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="I21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="4:14">
+      <c r="M21" s="6"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="4:16">
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="I22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:14">
-      <c r="A23"/>
-      <c r="B23"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="4:16">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="I23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:14">
-      <c r="A24"/>
-      <c r="B24"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="4:16">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="I24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="4:14">
+      <c r="M24" s="6"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="4:16">
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="I25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="M1:P1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="K1:K2"/>
   </mergeCells>
@@ -1820,10 +1881,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
-      <formula1>"卡,炮"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B16">
       <formula1>"随机,最快,最慢"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E25">
@@ -1831,6 +1889,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F25">
       <formula1>"永动,非永动"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N25">
+      <formula1>"卡,炮"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1840,28 +1901,32 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:N25"/>
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B19"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33333333333333" style="1"/>
-    <col min="3" max="8" width="9.16666666666667" style="1"/>
-    <col min="9" max="9" width="13.3333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.16666666666667" style="1"/>
+    <col min="4" max="6" width="8.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.16666666666667" style="1"/>
+    <col min="9" max="9" width="10" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.16666666666667" style="1"/>
-    <col min="11" max="11" width="18.8333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.16666666666667" style="1"/>
-    <col min="13" max="13" width="11.3333333333333" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.16666666666667" style="1"/>
+    <col min="13" max="13" width="5.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="10.875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.16666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1884,8 +1949,10 @@
         <v>5</v>
       </c>
       <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1912,22 +1979,28 @@
       <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3">
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
@@ -1936,12 +2009,22 @@
       <c r="K3" s="3">
         <v>307</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="M3" s="6">
+        <v>1039</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="7">
+        <v>100</v>
+      </c>
+      <c r="P3" s="7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3">
         <v>9</v>
@@ -1950,55 +2033,59 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
       </c>
       <c r="I4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="M4" s="6"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3">
         <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>
       </c>
       <c r="I5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="M5" s="6"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="3">
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>19</v>
@@ -2008,30 +2095,34 @@
       </c>
       <c r="I6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="4:14">
+      <c r="M6" s="6"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="D7" s="3">
         <v>7</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
       </c>
       <c r="I7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="M7" s="6"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -2040,7 +2131,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>19</v>
@@ -2050,15 +2141,17 @@
       </c>
       <c r="I8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="4:14">
+      <c r="M8" s="6"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="D9" s="3">
         <v>5</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>19</v>
@@ -2068,12 +2161,14 @@
       </c>
       <c r="I9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="M9" s="6"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3">
         <v>10000000</v>
@@ -2084,15 +2179,17 @@
       <c r="G10" s="3"/>
       <c r="I10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="M10" s="6"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2100,25 +2197,29 @@
       <c r="G11" s="3"/>
       <c r="I11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="4:14">
+      <c r="M11" s="6"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="I12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="M12" s="6"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3">
-        <v>549</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2126,15 +2227,17 @@
       <c r="G13" s="3"/>
       <c r="I13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="M13" s="6"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2">
-        <v>4000</v>
+        <v>1400</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2142,15 +2245,17 @@
       <c r="G14" s="3"/>
       <c r="I14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="M14" s="6"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2158,15 +2263,17 @@
       <c r="G15" s="3"/>
       <c r="I15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="M15" s="6"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2174,126 +2281,123 @@
       <c r="G16" s="3"/>
       <c r="I16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="4:14">
+      <c r="M16" s="6"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="4:16">
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="I17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="4:16">
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="I18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="4:16">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="I19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3">
-        <v>100</v>
-      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="4:16">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="I20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3">
-        <v>716</v>
-      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="4:16">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="I21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="4:14">
+      <c r="M21" s="6"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="4:16">
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="I22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="4:14">
+      <c r="M22" s="6"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="4:16">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="I23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="4:14">
+      <c r="M23" s="6"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="4:16">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="I24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="4:14">
+      <c r="M24" s="6"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="4:16">
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="I25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="M1:P1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="K1:K2"/>
   </mergeCells>
@@ -2320,10 +2424,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
-      <formula1>"卡,炮"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B16">
       <formula1>"随机,最快,最慢"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E25">
@@ -2331,6 +2432,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F25">
       <formula1>"永动,非永动"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N25">
+      <formula1>"卡,炮"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2340,32 +2444,37 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:N25"/>
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B19"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="8" width="9.16666666666667" style="1"/>
-    <col min="9" max="9" width="13.3333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.16666666666667" style="1"/>
+    <col min="4" max="6" width="8.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.16666666666667" style="1"/>
+    <col min="9" max="9" width="10" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.16666666666667" style="1"/>
-    <col min="11" max="11" width="18.8333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.16666666666667" style="1"/>
-    <col min="13" max="13" width="11.3333333333333" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.16666666666667" style="1"/>
+    <col min="13" max="13" width="5.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="10.875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.16666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -2383,8 +2492,10 @@
         <v>5</v>
       </c>
       <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2411,135 +2522,159 @@
       <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>300</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="K3" s="3">
+        <v>307</v>
+      </c>
+      <c r="M3" s="6">
+        <v>1039</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="7">
+        <v>100</v>
+      </c>
+      <c r="P3" s="7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="M4" s="6"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="M5" s="6"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D6" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="4:14">
+      <c r="M6" s="6"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="D7" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
       </c>
       <c r="I7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="M7" s="6"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>19</v>
@@ -2549,25 +2684,37 @@
       </c>
       <c r="I8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="4:14">
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="M9" s="6"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3">
-        <v>100000</v>
+        <v>10000000</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2575,15 +2722,17 @@
       <c r="G10" s="3"/>
       <c r="I10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="M10" s="6"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2591,25 +2740,29 @@
       <c r="G11" s="3"/>
       <c r="I11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="4:14">
+      <c r="M11" s="6"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="I12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="M12" s="6"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2617,15 +2770,17 @@
       <c r="G13" s="3"/>
       <c r="I13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="M13" s="6"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2">
-        <v>4000</v>
+        <v>1400</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2633,15 +2788,17 @@
       <c r="G14" s="3"/>
       <c r="I14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="M14" s="6"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2649,15 +2806,17 @@
       <c r="G15" s="3"/>
       <c r="I15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="M15" s="6"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2665,126 +2824,123 @@
       <c r="G16" s="3"/>
       <c r="I16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="4:14">
+      <c r="M16" s="6"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="4:16">
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="I17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="4:16">
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="I18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="4:16">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="I19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3">
-        <v>100</v>
-      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="4:16">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="I20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3">
-        <v>100</v>
-      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="4:16">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="I21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="4:14">
+      <c r="M21" s="6"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="4:16">
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="I22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="4:14">
+      <c r="M22" s="6"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="4:16">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="I23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="4:14">
+      <c r="M23" s="6"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="4:16">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="I24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="4:14">
+      <c r="M24" s="6"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="4:16">
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="I25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="M1:P1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="K1:K2"/>
   </mergeCells>
@@ -2811,10 +2967,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
-      <formula1>"卡,炮"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B16">
       <formula1>"随机,最快,最慢"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E25">
@@ -2822,6 +2975,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F25">
       <formula1>"永动,非永动"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N25">
+      <formula1>"卡,炮"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2832,31 +2988,36 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet34"/>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView zoomScale="117" zoomScaleNormal="117" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B19"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="8" width="9.16666666666667" style="1"/>
-    <col min="9" max="9" width="13.3333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.16666666666667" style="1"/>
+    <col min="4" max="6" width="8.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.16666666666667" style="1"/>
+    <col min="9" max="9" width="10" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.16666666666667" style="1"/>
-    <col min="11" max="11" width="18.8333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.16666666666667" style="1"/>
-    <col min="13" max="13" width="11.3333333333333" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.16666666666667" style="1"/>
+    <col min="13" max="13" width="5.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="10.875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.16666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -2874,8 +3035,10 @@
         <v>5</v>
       </c>
       <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2902,22 +3065,28 @@
       <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3">
         <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -2926,12 +3095,22 @@
         <v>800</v>
       </c>
       <c r="K3" s="3"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="M3" s="6">
+        <v>1039</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="7">
+        <v>100</v>
+      </c>
+      <c r="P3" s="7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3">
         <v>4</v>
@@ -2940,7 +3119,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>19</v>
@@ -2950,21 +3129,23 @@
       </c>
       <c r="I4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="M4" s="6"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>
@@ -2974,21 +3155,23 @@
       </c>
       <c r="I5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="M5" s="6"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>19</v>
@@ -2998,15 +3181,17 @@
       </c>
       <c r="I6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="4:14">
+      <c r="M6" s="6"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="D7" s="3">
         <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>19</v>
@@ -3016,12 +3201,14 @@
       </c>
       <c r="I7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="M7" s="6"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -3030,7 +3217,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>19</v>
@@ -3040,22 +3227,26 @@
       </c>
       <c r="I8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="4:14">
+      <c r="M8" s="6"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="I9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="M9" s="6"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3">
         <v>500000</v>
@@ -3066,15 +3257,17 @@
       <c r="G10" s="3"/>
       <c r="I10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="M10" s="6"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -3082,25 +3275,29 @@
       <c r="G11" s="3"/>
       <c r="I11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="4:14">
+      <c r="M11" s="6"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="I12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="M12" s="6"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -3108,15 +3305,17 @@
       <c r="G13" s="3"/>
       <c r="I13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="M13" s="6"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2">
-        <v>4000</v>
+        <v>1400</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -3124,15 +3323,17 @@
       <c r="G14" s="3"/>
       <c r="I14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="M14" s="6"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -3140,15 +3341,17 @@
       <c r="G15" s="3"/>
       <c r="I15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="M15" s="6"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -3156,126 +3359,123 @@
       <c r="G16" s="3"/>
       <c r="I16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="4:14">
+      <c r="M16" s="6"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="4:16">
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="I17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="4:16">
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="I18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="4:16">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="I19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3">
-        <v>100</v>
-      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="4:16">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="I20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3">
-        <v>100</v>
-      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="4:16">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="I21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="4:14">
+      <c r="M21" s="6"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="4:16">
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="I22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="4:14">
+      <c r="M22" s="6"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="4:16">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="I23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="4:14">
+      <c r="M23" s="6"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="4:16">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="I24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="4:14">
+      <c r="M24" s="6"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="4:16">
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="I25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="M1:P1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="K1:K2"/>
   </mergeCells>
@@ -3302,10 +3502,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
-      <formula1>"卡,炮"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B16">
       <formula1>"随机,最快,最慢"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E25">
@@ -3313,6 +3510,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F25">
       <formula1>"永动,非永动"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N25">
+      <formula1>"卡,炮"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3323,26 +3523,31 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView zoomScale="117" zoomScaleNormal="117" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B19"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="8" width="9.16666666666667" style="1"/>
-    <col min="9" max="9" width="13.3333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.16666666666667" style="1"/>
+    <col min="4" max="6" width="8.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.16666666666667" style="1"/>
+    <col min="9" max="9" width="10" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.16666666666667" style="1"/>
-    <col min="11" max="11" width="18.8333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.16666666666667" style="1"/>
-    <col min="13" max="13" width="11.3333333333333" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.16666666666667" style="1"/>
+    <col min="13" max="13" width="5.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="10.875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.16666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3365,8 +3570,10 @@
         <v>5</v>
       </c>
       <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -3393,19 +3600,25 @@
       <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3">
         <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>19</v>
@@ -3419,12 +3632,22 @@
       <c r="K3" s="3">
         <v>50</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="M3" s="6">
+        <v>1039</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="7">
+        <v>100</v>
+      </c>
+      <c r="P3" s="7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3">
         <v>8</v>
@@ -3433,7 +3656,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>19</v>
@@ -3443,21 +3666,23 @@
       </c>
       <c r="I4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="M4" s="6"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3">
         <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>
@@ -3467,21 +3692,23 @@
       </c>
       <c r="I5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="M5" s="6"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3">
         <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>19</v>
@@ -3491,15 +3718,17 @@
       </c>
       <c r="I6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="4:14">
+      <c r="M6" s="6"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="D7" s="3">
         <v>7</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>19</v>
@@ -3509,12 +3738,14 @@
       </c>
       <c r="I7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="M7" s="6"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3">
         <v>3</v>
@@ -3523,7 +3754,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>19</v>
@@ -3533,15 +3764,17 @@
       </c>
       <c r="I8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="4:14">
+      <c r="M8" s="6"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="D9" s="3">
         <v>5</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>19</v>
@@ -3551,12 +3784,14 @@
       </c>
       <c r="I9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="M9" s="6"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3">
         <v>50000</v>
@@ -3565,7 +3800,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>19</v>
@@ -3575,15 +3810,17 @@
       </c>
       <c r="I10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="M10" s="6"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -3591,25 +3828,29 @@
       <c r="G11" s="3"/>
       <c r="I11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="4:14">
+      <c r="M11" s="6"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="I12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="M12" s="6"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -3617,15 +3858,17 @@
       <c r="G13" s="3"/>
       <c r="I13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="M13" s="6"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2">
-        <v>4000</v>
+        <v>1400</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -3633,15 +3876,17 @@
       <c r="G14" s="3"/>
       <c r="I14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="M14" s="6"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -3649,15 +3894,17 @@
       <c r="G15" s="3"/>
       <c r="I15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="M15" s="6"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -3665,126 +3912,123 @@
       <c r="G16" s="3"/>
       <c r="I16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="4:14">
+      <c r="M16" s="6"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="4:16">
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="I17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="4:16">
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="I18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="4:16">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="I19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3">
-        <v>100</v>
-      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="4:16">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="I20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3">
-        <v>100</v>
-      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="4:16">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="I21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="4:14">
+      <c r="M21" s="6"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="4:16">
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="I22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="4:14">
+      <c r="M22" s="6"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="4:16">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="I23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="4:14">
+      <c r="M23" s="6"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="4:16">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="I24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="4:14">
+      <c r="M24" s="6"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="4:16">
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="I25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="M1:P1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="K1:K2"/>
   </mergeCells>
@@ -3811,10 +4055,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
-      <formula1>"卡,炮"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B16">
       <formula1>"随机,最快,最慢"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E25">
@@ -3822,6 +4063,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F25">
       <formula1>"永动,非永动"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N25">
+      <formula1>"卡,炮"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3831,33 +4075,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:N25"/>
+  <sheetPr codeName="Sheet25"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="1"/>
-    <col min="3" max="8" width="9.16666666666667" style="1"/>
-    <col min="9" max="9" width="13.3333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.16666666666667" style="1"/>
+    <col min="4" max="6" width="8.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.16666666666667" style="1"/>
+    <col min="9" max="9" width="10" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.16666666666667" style="1"/>
-    <col min="11" max="11" width="18.8333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.16666666666667" style="1"/>
-    <col min="13" max="13" width="11.3333333333333" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.16666666666667" style="1"/>
+    <col min="13" max="13" width="5.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="10.875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.16666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -3875,13 +4123,15 @@
         <v>5</v>
       </c>
       <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -3903,22 +4153,28 @@
       <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3">
         <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
@@ -3927,12 +4183,22 @@
         <v>901</v>
       </c>
       <c r="K3" s="3"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="M3" s="6">
+        <v>1039</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="7">
+        <v>100</v>
+      </c>
+      <c r="P3" s="7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3">
         <v>6</v>
@@ -3941,7 +4207,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>19</v>
@@ -3951,21 +4217,23 @@
       </c>
       <c r="I4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="M4" s="6"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>
@@ -3975,21 +4243,23 @@
       </c>
       <c r="I5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="M5" s="6"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>19</v>
@@ -3999,15 +4269,17 @@
       </c>
       <c r="I6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="4:14">
+      <c r="M6" s="6"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="D7" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>19</v>
@@ -4017,21 +4289,23 @@
       </c>
       <c r="I7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="M7" s="6"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>19</v>
@@ -4041,25 +4315,37 @@
       </c>
       <c r="I8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="4:14">
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="M9" s="6"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3">
-        <v>100000000</v>
+        <v>10000000</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -4067,15 +4353,17 @@
       <c r="G10" s="3"/>
       <c r="I10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="M10" s="6"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -4083,25 +4371,29 @@
       <c r="G11" s="3"/>
       <c r="I11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="4:14">
+      <c r="M11" s="6"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="I12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="M12" s="6"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -4109,15 +4401,17 @@
       <c r="G13" s="3"/>
       <c r="I13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="M13" s="6"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -4125,15 +4419,17 @@
       <c r="G14" s="3"/>
       <c r="I14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="M14" s="6"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -4141,15 +4437,17 @@
       <c r="G15" s="3"/>
       <c r="I15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="M15" s="6"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -4157,130 +4455,123 @@
       <c r="G16" s="3"/>
       <c r="I16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="4:14">
+      <c r="M16" s="6"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="4:16">
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="I17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="4:16">
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="I18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="4:16">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="I19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3">
-        <v>100</v>
-      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="4:16">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="I20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3">
-        <v>100</v>
-      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="4:16">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="I21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="4:14">
+      <c r="M21" s="6"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="4:16">
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="I22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23"/>
-      <c r="B23"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="4:16">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="I23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24"/>
-      <c r="B24"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="4:16">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="I24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="4:14">
+      <c r="M24" s="6"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="4:16">
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="I25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="M1:P1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="K1:K2"/>
   </mergeCells>
@@ -4307,10 +4598,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
-      <formula1>"卡,炮"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B16">
       <formula1>"随机,最快,最慢"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E25">
@@ -4318,6 +4606,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F25">
       <formula1>"永动,非永动"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N25">
+      <formula1>"卡,炮"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4327,32 +4618,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:N25"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView zoomScale="221" zoomScaleNormal="221" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.16666666666667" style="1"/>
-    <col min="4" max="4" width="9.33333333333333" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.16666666666667" style="1"/>
-    <col min="7" max="7" width="9.33333333333333" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.16666666666667" style="1"/>
-    <col min="9" max="9" width="13.3333333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.16666666666667" style="1"/>
-    <col min="11" max="11" width="18.8333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.16666666666667" style="1"/>
-    <col min="13" max="13" width="11.3333333333333" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.16666666666667" style="1"/>
+    <col min="13" max="13" width="5.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="10.875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.16666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4375,13 +4666,15 @@
         <v>5</v>
       </c>
       <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -4403,69 +4696,87 @@
       <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="3">
-        <v>300</v>
+        <v>783</v>
       </c>
       <c r="K3" s="3"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="M3" s="6">
+        <v>1039</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="7">
+        <v>100</v>
+      </c>
+      <c r="P3" s="7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3">
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="M4" s="6"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>
@@ -4475,21 +4786,23 @@
       </c>
       <c r="I5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="M5" s="6"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>19</v>
@@ -4499,15 +4812,17 @@
       </c>
       <c r="I6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="4:14">
+      <c r="M6" s="6"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="D7" s="3">
         <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>19</v>
@@ -4517,12 +4832,14 @@
       </c>
       <c r="I7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="M7" s="6"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -4531,7 +4848,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>19</v>
@@ -4541,22 +4858,26 @@
       </c>
       <c r="I8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="4:14">
+      <c r="M8" s="6"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="I9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="M9" s="6"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3">
         <v>10000000</v>
@@ -4567,15 +4888,17 @@
       <c r="G10" s="3"/>
       <c r="I10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="M10" s="6"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -4583,25 +4906,29 @@
       <c r="G11" s="3"/>
       <c r="I11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="4:14">
+      <c r="M11" s="6"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="I12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="M12" s="6"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3">
-        <v>1570</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -4609,12 +4936,14 @@
       <c r="G13" s="3"/>
       <c r="I13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="M13" s="6"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2">
         <v>1400</v>
@@ -4625,15 +4954,17 @@
       <c r="G14" s="3"/>
       <c r="I14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="M14" s="6"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -4641,15 +4972,17 @@
       <c r="G15" s="3"/>
       <c r="I15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="M15" s="6"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1271</v>
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -4657,126 +4990,123 @@
       <c r="G16" s="3"/>
       <c r="I16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="4:14">
+      <c r="M16" s="6"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="4:16">
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="I17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="4:16">
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="I18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="4:16">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="I19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3">
-        <v>100</v>
-      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="4:16">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="I20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3">
-        <v>900</v>
-      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="4:16">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="I21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="4:14">
+      <c r="M21" s="6"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="4:16">
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="I22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="4:14">
+      <c r="M22" s="6"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="4:16">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="I23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="4:14">
+      <c r="M23" s="6"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="4:16">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="I24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="4:14">
+      <c r="M24" s="6"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="4:16">
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="I25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="M1:P1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="K1:K2"/>
   </mergeCells>
@@ -4803,10 +5133,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
-      <formula1>"卡,炮"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B16">
       <formula1>"随机,最快,最慢"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E25">
@@ -4814,6 +5141,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F25">
       <formula1>"永动,非永动"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N25">
+      <formula1>"卡,炮"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4823,32 +5153,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet48"/>
-  <dimension ref="A1:N25"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="8" width="9.16666666666667" style="1"/>
-    <col min="9" max="9" width="13.3333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.16666666666667" style="1"/>
+    <col min="4" max="6" width="8.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.16666666666667" style="1"/>
+    <col min="9" max="9" width="10" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.16666666666667" style="1"/>
-    <col min="11" max="11" width="18.8333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.16666666666667" style="1"/>
-    <col min="13" max="13" width="11.3333333333333" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.16666666666667" style="1"/>
+    <col min="13" max="13" width="5.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="10.875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.16666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -4866,13 +5201,15 @@
         <v>5</v>
       </c>
       <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -4894,45 +5231,61 @@
       <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
       </c>
       <c r="I3" s="3">
-        <v>1</v>
+        <v>830</v>
       </c>
       <c r="K3" s="3"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="M3" s="6">
+        <v>1039</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="7">
+        <v>100</v>
+      </c>
+      <c r="P3" s="7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3">
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>19</v>
@@ -4940,23 +5293,28 @@
       <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3">
+        <f>I3+2501</f>
+        <v>3331</v>
+      </c>
       <c r="K4" s="3"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="M4" s="6"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>
@@ -4966,21 +5324,23 @@
       </c>
       <c r="I5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="M5" s="6"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>19</v>
@@ -4990,15 +5350,17 @@
       </c>
       <c r="I6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="4:14">
+      <c r="M6" s="6"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="D7" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>19</v>
@@ -5008,21 +5370,23 @@
       </c>
       <c r="I7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="M7" s="6"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>19</v>
@@ -5032,25 +5396,29 @@
       </c>
       <c r="I8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="4:14">
+      <c r="M8" s="6"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="I9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="M9" s="6"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -5058,15 +5426,17 @@
       <c r="G10" s="3"/>
       <c r="I10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="M10" s="6"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -5074,25 +5444,29 @@
       <c r="G11" s="3"/>
       <c r="I11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="4:14">
+      <c r="M11" s="6"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="I12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="M12" s="6"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3">
-        <v>1040</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -5100,12 +5474,14 @@
       <c r="G13" s="3"/>
       <c r="I13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="M13" s="6"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2">
         <v>1400</v>
@@ -5116,15 +5492,17 @@
       <c r="G14" s="3"/>
       <c r="I14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="M14" s="6"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -5132,15 +5510,17 @@
       <c r="G15" s="3"/>
       <c r="I15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="M15" s="6"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -5148,126 +5528,123 @@
       <c r="G16" s="3"/>
       <c r="I16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="4:14">
+      <c r="M16" s="6"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="4:16">
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="I17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="4:16">
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="I18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="4:16">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="I19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3">
-        <v>100</v>
-      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="4:16">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="I20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3">
-        <v>900</v>
-      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="4:16">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="I21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="4:14">
+      <c r="M21" s="6"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="4:16">
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="I22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="4:14">
+      <c r="M22" s="6"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="4:16">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="I23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="4:14">
+      <c r="M23" s="6"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="4:16">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="I24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="4:14">
+      <c r="M24" s="6"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="4:16">
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="I25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="M1:P1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="K1:K2"/>
   </mergeCells>
@@ -5294,10 +5671,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
-      <formula1>"卡,炮"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B16">
       <formula1>"随机,最快,最慢"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E25">
@@ -5305,6 +5679,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F25">
       <formula1>"永动,非永动"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N25">
+      <formula1>"卡,炮"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5314,33 +5691,37 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:N25"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.66666666666667" style="1"/>
-    <col min="3" max="8" width="9.16666666666667" style="1"/>
-    <col min="9" max="9" width="13.3333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.16666666666667" style="1"/>
+    <col min="4" max="6" width="8.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.16666666666667" style="1"/>
+    <col min="9" max="9" width="10" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.16666666666667" style="1"/>
-    <col min="11" max="11" width="18.8333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.16666666666667" style="1"/>
-    <col min="13" max="13" width="11.3333333333333" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.16666666666667" style="1"/>
+    <col min="13" max="13" width="5.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="10.875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.16666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -5358,13 +5739,15 @@
         <v>5</v>
       </c>
       <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -5386,19 +5769,25 @@
       <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3">
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>19</v>
@@ -5407,15 +5796,27 @@
         <v>0</v>
       </c>
       <c r="I3" s="3">
-        <v>585</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14">
+        <v>300</v>
+      </c>
+      <c r="K3" s="3">
+        <v>200</v>
+      </c>
+      <c r="M3" s="6">
+        <v>1039</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="7">
+        <v>100</v>
+      </c>
+      <c r="P3" s="7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3">
         <v>7</v>
@@ -5424,7 +5825,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>19</v>
@@ -5434,21 +5835,23 @@
       </c>
       <c r="I4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="M4" s="6"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>
@@ -5458,21 +5861,23 @@
       </c>
       <c r="I5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="M5" s="6"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>19</v>
@@ -5482,15 +5887,17 @@
       </c>
       <c r="I6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="4:14">
+      <c r="M6" s="6"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="D7" s="3">
         <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>19</v>
@@ -5500,12 +5907,14 @@
       </c>
       <c r="I7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="M7" s="6"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -5514,7 +5923,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>19</v>
@@ -5524,22 +5933,26 @@
       </c>
       <c r="I8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="4:14">
+      <c r="M8" s="6"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="I9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="M9" s="6"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3">
         <v>10000000</v>
@@ -5550,15 +5963,17 @@
       <c r="G10" s="3"/>
       <c r="I10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="M10" s="6"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -5566,25 +5981,29 @@
       <c r="G11" s="3"/>
       <c r="I11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="4:14">
+      <c r="M11" s="6"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="I12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="M12" s="6"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3">
-        <v>1116</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -5592,12 +6011,14 @@
       <c r="G13" s="3"/>
       <c r="I13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="M13" s="6"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2">
         <v>1400</v>
@@ -5608,15 +6029,17 @@
       <c r="G14" s="3"/>
       <c r="I14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="M14" s="6"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -5624,15 +6047,17 @@
       <c r="G15" s="3"/>
       <c r="I15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="M15" s="6"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3">
-        <v>696</v>
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -5640,126 +6065,123 @@
       <c r="G16" s="3"/>
       <c r="I16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="4:14">
+      <c r="M16" s="6"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="4:16">
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="I17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="4:16">
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="I18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="4:16">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="I19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3">
-        <v>100</v>
-      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="4:16">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="I20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3">
-        <v>900</v>
-      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="4:16">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="I21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="4:14">
+      <c r="M21" s="6"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="4:16">
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="I22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="4:14">
+      <c r="M22" s="6"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="4:16">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="I23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="4:14">
+      <c r="M23" s="6"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="4:16">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="I24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="4:14">
+      <c r="M24" s="6"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="4:16">
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="I25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="M1:P1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="K1:K2"/>
   </mergeCells>
@@ -5786,10 +6208,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
-      <formula1>"卡,炮"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B16">
       <formula1>"随机,最快,最慢"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E25">
@@ -5797,6 +6216,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F25">
       <formula1>"永动,非永动"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N25">
+      <formula1>"卡,炮"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5806,33 +6228,37 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N25"/>
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33333333333333" style="1"/>
-    <col min="3" max="8" width="9.16666666666667" style="1"/>
-    <col min="9" max="9" width="13.3333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.16666666666667" style="1"/>
+    <col min="4" max="6" width="8.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.16666666666667" style="1"/>
+    <col min="9" max="9" width="10" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.16666666666667" style="1"/>
-    <col min="11" max="11" width="18.8333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.16666666666667" style="1"/>
-    <col min="13" max="13" width="11.3333333333333" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.16666666666667" style="1"/>
+    <col min="13" max="13" width="5.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="10.875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.16666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -5850,8 +6276,10 @@
         <v>5</v>
       </c>
       <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -5878,45 +6306,61 @@
       <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3">
         <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="3">
-        <v>1</v>
+        <v>783</v>
       </c>
       <c r="K3" s="3"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="M3" s="6">
+        <v>1039</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="7">
+        <v>100</v>
+      </c>
+      <c r="P3" s="7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3">
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>19</v>
@@ -5926,21 +6370,23 @@
       </c>
       <c r="I4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="M4" s="6"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>
@@ -5950,21 +6396,23 @@
       </c>
       <c r="I5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="M5" s="6"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>19</v>
@@ -5974,15 +6422,17 @@
       </c>
       <c r="I6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="4:14">
+      <c r="M6" s="6"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="D7" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>19</v>
@@ -5992,21 +6442,23 @@
       </c>
       <c r="I7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="M7" s="6"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>19</v>
@@ -6016,33 +6468,29 @@
       </c>
       <c r="I8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="4:14">
-      <c r="D9" s="3">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
       <c r="I9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="M9" s="6"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3">
-        <v>1000000</v>
+        <v>100000000</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -6050,15 +6498,17 @@
       <c r="G10" s="3"/>
       <c r="I10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="M10" s="6"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -6066,25 +6516,29 @@
       <c r="G11" s="3"/>
       <c r="I11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="4:14">
+      <c r="M11" s="6"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="I12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="M12" s="6"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3">
-        <v>2301</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -6092,15 +6546,17 @@
       <c r="G13" s="3"/>
       <c r="I13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="M13" s="6"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2">
-        <v>4000</v>
+        <v>1400</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -6108,15 +6564,17 @@
       <c r="G14" s="3"/>
       <c r="I14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="M14" s="6"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -6124,15 +6582,17 @@
       <c r="G15" s="3"/>
       <c r="I15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="M15" s="6"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -6140,126 +6600,123 @@
       <c r="G16" s="3"/>
       <c r="I16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="4:14">
+      <c r="M16" s="6"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="4:16">
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="I17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="4:16">
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="I18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="4:16">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="I19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0</v>
-      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="4:16">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="I20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3">
-        <v>1000</v>
-      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="4:16">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="I21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="4:14">
+      <c r="M21" s="6"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="4:16">
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="I22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="4:14">
+      <c r="M22" s="6"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="4:16">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="I23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="4:14">
+      <c r="M23" s="6"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="4:16">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="I24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="4:14">
+      <c r="M24" s="6"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="4:16">
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="I25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="M1:P1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="K1:K2"/>
   </mergeCells>
@@ -6286,10 +6743,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
-      <formula1>"卡,炮"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B16">
       <formula1>"随机,最快,最慢"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E25">
@@ -6297,6 +6751,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F25">
       <formula1>"永动,非永动"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N25">
+      <formula1>"卡,炮"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6307,32 +6764,36 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B19"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33333333333333" style="1"/>
-    <col min="3" max="8" width="9.16666666666667" style="1"/>
-    <col min="9" max="9" width="13.3333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.16666666666667" style="1"/>
+    <col min="4" max="6" width="8.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.16666666666667" style="1"/>
+    <col min="9" max="9" width="10" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.16666666666667" style="1"/>
-    <col min="11" max="11" width="18.8333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.16666666666667" style="1"/>
-    <col min="13" max="13" width="11.3333333333333" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.16666666666667" style="1"/>
+    <col min="13" max="13" width="5.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="10.875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.16666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -6350,13 +6811,15 @@
         <v>5</v>
       </c>
       <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -6378,19 +6841,25 @@
       <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>19</v>
@@ -6399,72 +6868,86 @@
         <v>0</v>
       </c>
       <c r="I3" s="3">
-        <v>300</v>
+        <v>585</v>
       </c>
       <c r="K3" s="3"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="M3" s="6">
+        <v>1039</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="7">
+        <v>100</v>
+      </c>
+      <c r="P3" s="7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3">
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="M4" s="6"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="M5" s="6"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>19</v>
@@ -6474,72 +6957,72 @@
       </c>
       <c r="I6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="4:14">
+      <c r="M6" s="6"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="D7" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="M7" s="6"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="4:14">
-      <c r="D9" s="3">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
       <c r="I9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="M9" s="6"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3">
         <v>10000000</v>
@@ -6550,15 +7033,17 @@
       <c r="G10" s="3"/>
       <c r="I10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="M10" s="6"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -6566,25 +7051,29 @@
       <c r="G11" s="3"/>
       <c r="I11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="4:14">
+      <c r="M11" s="6"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="I12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="M12" s="6"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -6592,15 +7081,17 @@
       <c r="G13" s="3"/>
       <c r="I13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="M13" s="6"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2">
-        <v>4000</v>
+        <v>1400</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -6608,15 +7099,17 @@
       <c r="G14" s="3"/>
       <c r="I14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="M14" s="6"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -6624,15 +7117,17 @@
       <c r="G15" s="3"/>
       <c r="I15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="M15" s="6"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -6640,126 +7135,123 @@
       <c r="G16" s="3"/>
       <c r="I16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="4:14">
+      <c r="M16" s="6"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="4:16">
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="I17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="4:16">
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="I18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="4:16">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="I19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3">
-        <v>100</v>
-      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="4:16">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="I20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3">
-        <v>100</v>
-      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="4:16">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="I21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="4:14">
+      <c r="M21" s="6"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="4:16">
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="I22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="4:14">
+      <c r="M22" s="6"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="4:16">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="I23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="4:14">
+      <c r="M23" s="6"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="4:16">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="I24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="4:14">
+      <c r="M24" s="6"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="4:16">
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="I25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="M1:P1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="K1:K2"/>
   </mergeCells>
@@ -6786,10 +7278,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
-      <formula1>"卡,炮"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B16">
       <formula1>"随机,最快,最慢"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E25">
@@ -6797,6 +7286,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F25">
       <formula1>"永动,非永动"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N25">
+      <formula1>"卡,炮"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6806,33 +7298,37 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:N25"/>
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B19"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33333333333333" style="1"/>
-    <col min="3" max="8" width="9.16666666666667" style="1"/>
-    <col min="9" max="9" width="13.3333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.16666666666667" style="1"/>
+    <col min="4" max="6" width="8.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.16666666666667" style="1"/>
+    <col min="9" max="9" width="10" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.16666666666667" style="1"/>
-    <col min="11" max="11" width="18.8333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.16666666666667" style="1"/>
-    <col min="13" max="13" width="11.3333333333333" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.16666666666667" style="1"/>
+    <col min="13" max="13" width="5.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="10.875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.16666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -6850,8 +7346,10 @@
         <v>5</v>
       </c>
       <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -6878,135 +7376,159 @@
       <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
       </c>
       <c r="I3" s="3">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="K3" s="3"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="M3" s="6">
+        <v>1039</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="7">
+        <v>100</v>
+      </c>
+      <c r="P3" s="7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3">
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="M4" s="6"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="D5" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="M5" s="6"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="4:14">
+      <c r="M6" s="6"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="D7" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
       </c>
       <c r="I7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="M7" s="6"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>19</v>
@@ -7016,33 +7538,37 @@
       </c>
       <c r="I8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="4:14">
+      <c r="M8" s="6"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="D9" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="M9" s="6"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -7050,15 +7576,17 @@
       <c r="G10" s="3"/>
       <c r="I10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="M10" s="6"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -7066,25 +7594,29 @@
       <c r="G11" s="3"/>
       <c r="I11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="4:14">
+      <c r="M11" s="6"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="I12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="M12" s="6"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3">
-        <v>549</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -7092,15 +7624,17 @@
       <c r="G13" s="3"/>
       <c r="I13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="M13" s="6"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2">
-        <v>4000</v>
+        <v>1400</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -7108,15 +7642,17 @@
       <c r="G14" s="3"/>
       <c r="I14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="M14" s="6"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -7124,15 +7660,17 @@
       <c r="G15" s="3"/>
       <c r="I15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="M15" s="6"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -7140,126 +7678,123 @@
       <c r="G16" s="3"/>
       <c r="I16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="4:14">
+      <c r="M16" s="6"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="4:16">
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="I17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="4:16">
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="I18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="4:16">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="I19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3">
-        <v>100</v>
-      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="4:16">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="I20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3">
-        <v>100</v>
-      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="4:16">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="I21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="4:14">
+      <c r="M21" s="6"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="4:16">
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="I22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="4:14">
+      <c r="M22" s="6"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="4:16">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="I23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="4:14">
+      <c r="M23" s="6"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="4:16">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="I24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="4:14">
+      <c r="M24" s="6"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="4:16">
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="I25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="M1:P1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="K1:K2"/>
   </mergeCells>
@@ -7286,10 +7821,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
-      <formula1>"卡,炮"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B16">
       <formula1>"随机,最快,最慢"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E25">
@@ -7297,6 +7829,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F25">
       <formula1>"永动,非永动"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N25">
+      <formula1>"卡,炮"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7306,33 +7841,37 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:N25"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView zoomScale="116" zoomScaleNormal="116" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B19"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33333333333333" style="1"/>
-    <col min="3" max="8" width="9.16666666666667" style="1"/>
-    <col min="9" max="9" width="13.3333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.16666666666667" style="1"/>
+    <col min="4" max="6" width="8.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.16666666666667" style="1"/>
+    <col min="9" max="9" width="10" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.16666666666667" style="1"/>
-    <col min="11" max="11" width="18.8333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.16666666666667" style="1"/>
-    <col min="13" max="13" width="11.3333333333333" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.16666666666667" style="1"/>
+    <col min="13" max="13" width="5.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="10.875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.16666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -7350,8 +7889,10 @@
         <v>5</v>
       </c>
       <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -7378,126 +7919,150 @@
       <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3">
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="K3" s="3">
-        <v>307</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>300</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="M3" s="6">
+        <v>1039</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="7">
+        <v>100</v>
+      </c>
+      <c r="P3" s="7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
       </c>
       <c r="I4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="M4" s="6"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3">
         <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>
       </c>
       <c r="I5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="M5" s="6"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3">
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="4:14">
+      <c r="M6" s="6"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="D7" s="3">
         <v>7</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
       </c>
       <c r="I7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="M7" s="6"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -7506,7 +8071,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>19</v>
@@ -7516,30 +8081,34 @@
       </c>
       <c r="I8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="4:14">
+      <c r="M8" s="6"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="D9" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="M9" s="6"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3">
         <v>10000000</v>
@@ -7550,15 +8119,17 @@
       <c r="G10" s="3"/>
       <c r="I10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="M10" s="6"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -7566,25 +8137,29 @@
       <c r="G11" s="3"/>
       <c r="I11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="4:14">
+      <c r="M11" s="6"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="I12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="M12" s="6"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3">
-        <v>549</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -7592,15 +8167,17 @@
       <c r="G13" s="3"/>
       <c r="I13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="M13" s="6"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2">
-        <v>4000</v>
+        <v>1400</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -7608,15 +8185,17 @@
       <c r="G14" s="3"/>
       <c r="I14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="M14" s="6"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -7624,15 +8203,17 @@
       <c r="G15" s="3"/>
       <c r="I15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="M15" s="6"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -7640,126 +8221,123 @@
       <c r="G16" s="3"/>
       <c r="I16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="4:14">
+      <c r="M16" s="6"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="4:16">
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="I17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="4:16">
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="I18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="4:16">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="I19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3">
-        <v>100</v>
-      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="4:16">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="I20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3">
-        <v>716</v>
-      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="4:16">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="I21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="4:14">
+      <c r="M21" s="6"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="4:16">
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="I22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="4:14">
+      <c r="M22" s="6"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="4:16">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="I23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="4:14">
+      <c r="M23" s="6"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="4:16">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="I24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="4:14">
+      <c r="M24" s="6"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="4:16">
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="I25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="M1:P1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="K1:K2"/>
   </mergeCells>
@@ -7786,10 +8364,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
-      <formula1>"卡,炮"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B16">
       <formula1>"随机,最快,最慢"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E25">
@@ -7797,6 +8372,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F25">
       <formula1>"永动,非永动"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N25">
+      <formula1>"卡,炮"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
